--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8476.133412672287</v>
+        <v>-18623.17124446173</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24728256.75116413</v>
+        <v>24061417.37221275</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15140382.24954453</v>
+        <v>14486812.97423426</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2948429.194783675</v>
+        <v>3182659.471671194</v>
       </c>
     </row>
     <row r="11">
@@ -2081,19 +2083,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>173.6367412348447</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3063086991904</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>52.28752114005012</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>148.1476088529642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>380.8846381935532</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
         <v>255.7713603095518</v>
@@ -2378,10 +2380,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>119.6084475482119</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>242.5129524747077</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>242.3876590975659</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>28.78337546707218</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>78.12670786905828</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2716,10 +2718,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>73.32715769921856</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2728,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>65.99276982265178</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2792,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>333.5152615739078</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>209.7280683124661</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2846,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2888,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H30" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>2.249401508912849</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>259.3395661439117</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3038,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>299.3501656346468</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,10 +3091,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>223.0901855680955</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3123,7 +3125,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H33" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -3205,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>235.2235292712062</v>
+        <v>219.4183652254764</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>341.7663037623994</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>97.50057742889204</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3362,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H36" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>167.8708649441482</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3487,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>148.1476088529637</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3557,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>199.9099042065814</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>151.6541340413644</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3599,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H39" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3642,7 +3644,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W39" t="n">
-        <v>194.556163395115</v>
+        <v>194.5561633951149</v>
       </c>
       <c r="X39" t="n">
         <v>161.8425727710037</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>65.76953573495733</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>113.3010685731257</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>141.3535193811973</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3834,7 +3836,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H42" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3907,13 +3909,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>201.0987038156379</v>
       </c>
       <c r="W43" t="n">
-        <v>164.540418312084</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>41.0233857982894</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="46">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>50.29535465145318</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1294.12872471022</v>
+        <v>212.302640172791</v>
       </c>
       <c r="C20" t="n">
-        <v>867.2279947235206</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D20" t="n">
-        <v>867.2279947235206</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E20" t="n">
-        <v>441.2510548713781</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F20" t="n">
-        <v>441.2510548713781</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G20" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I20" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J20" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K20" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L20" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M20" t="n">
-        <v>856.3013579804531</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N20" t="n">
-        <v>1313.087264683184</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O20" t="n">
-        <v>1769.873171385915</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P20" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q20" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
@@ -5789,13 +5791,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W20" t="n">
-        <v>1713.977089001751</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X20" t="n">
-        <v>1713.977089001751</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y20" t="n">
-        <v>1713.977089001751</v>
+        <v>632.1510044643211</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E21" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F21" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H21" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I21" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J21" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K21" t="n">
-        <v>501.1445421254694</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L21" t="n">
-        <v>957.9304488282003</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M21" t="n">
-        <v>957.9304488282003</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N21" t="n">
-        <v>957.9304488282003</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O21" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="P21" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q21" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R21" t="n">
         <v>1845.599623041337</v>
@@ -5859,7 +5861,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
         <v>1437.627243819906</v>
@@ -5868,13 +5870,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>203.1689621665946</v>
+        <v>352.8130115130226</v>
       </c>
       <c r="C22" t="n">
-        <v>203.1689621665946</v>
+        <v>352.8130115130226</v>
       </c>
       <c r="D22" t="n">
-        <v>203.1689621665946</v>
+        <v>189.4962386397933</v>
       </c>
       <c r="E22" t="n">
-        <v>203.1689621665946</v>
+        <v>189.4962386397933</v>
       </c>
       <c r="F22" t="n">
-        <v>203.1689621665946</v>
+        <v>189.4962386397933</v>
       </c>
       <c r="G22" t="n">
-        <v>36.91199246082674</v>
+        <v>189.4962386397933</v>
       </c>
       <c r="H22" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K22" t="n">
         <v>76.20565529896515</v>
@@ -5938,22 +5940,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T22" t="n">
-        <v>1432.125227786372</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U22" t="n">
         <v>1151.940779286676</v>
       </c>
       <c r="V22" t="n">
-        <v>870.229311894705</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W22" t="n">
-        <v>595.376908067218</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="X22" t="n">
-        <v>352.8130115130231</v>
+        <v>352.8130115130226</v>
       </c>
       <c r="Y22" t="n">
-        <v>203.1689621665946</v>
+        <v>352.8130115130226</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>421.6439502320927</v>
+        <v>888.013114123569</v>
       </c>
       <c r="C23" t="n">
-        <v>421.6439502320927</v>
+        <v>888.013114123569</v>
       </c>
       <c r="D23" t="n">
-        <v>36.91199246082674</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E23" t="n">
-        <v>36.91199246082674</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J23" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K23" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L23" t="n">
-        <v>1313.087264683184</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M23" t="n">
-        <v>1313.087264683184</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N23" t="n">
-        <v>1313.087264683184</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O23" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P23" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q23" t="n">
         <v>1728.043288159434</v>
@@ -6017,22 +6019,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T23" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U23" t="n">
-        <v>1587.244713637749</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V23" t="n">
-        <v>1229.755298763999</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W23" t="n">
-        <v>833.3639490643454</v>
+        <v>888.013114123569</v>
       </c>
       <c r="X23" t="n">
-        <v>421.6439502320927</v>
+        <v>888.013114123569</v>
       </c>
       <c r="Y23" t="n">
-        <v>421.6439502320927</v>
+        <v>888.013114123569</v>
       </c>
     </row>
     <row r="24">
@@ -6045,7 +6047,7 @@
         <v>604.035483492282</v>
       </c>
       <c r="C24" t="n">
-        <v>486.5295800097867</v>
+        <v>486.5295800097868</v>
       </c>
       <c r="D24" t="n">
         <v>382.6896215250718</v>
@@ -6054,37 +6056,37 @@
         <v>277.987687798009</v>
       </c>
       <c r="F24" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G24" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851716</v>
       </c>
       <c r="H24" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082675</v>
       </c>
       <c r="I24" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273859</v>
       </c>
       <c r="J24" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K24" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L24" t="n">
-        <v>765.3953884431487</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.18129514588</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N24" t="n">
-        <v>1678.967201848611</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O24" t="n">
-        <v>1678.967201848611</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P24" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q24" t="n">
         <v>1845.599623041337</v>
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.8845555819107</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C25" t="n">
-        <v>36.91199246082674</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D25" t="n">
-        <v>36.91199246082674</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E25" t="n">
-        <v>36.91199246082674</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F25" t="n">
-        <v>36.91199246082674</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G25" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H25" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I25" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J25" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K25" t="n">
         <v>76.20565529896515</v>
@@ -6169,28 +6171,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R25" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S25" t="n">
-        <v>1675.464575560472</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T25" t="n">
-        <v>1432.125227786372</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U25" t="n">
-        <v>1151.940779286676</v>
+        <v>1310.259083697129</v>
       </c>
       <c r="V25" t="n">
-        <v>870.229311894705</v>
+        <v>1310.259083697129</v>
       </c>
       <c r="W25" t="n">
-        <v>625.3932926042344</v>
+        <v>1310.259083697129</v>
       </c>
       <c r="X25" t="n">
-        <v>625.3932926042344</v>
+        <v>1310.259083697129</v>
       </c>
       <c r="Y25" t="n">
-        <v>399.0505242939764</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>527.7837103374617</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="C26" t="n">
-        <v>100.8829803507618</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="D26" t="n">
-        <v>100.8829803507618</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="E26" t="n">
-        <v>100.8829803507618</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F26" t="n">
-        <v>100.8829803507618</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G26" t="n">
-        <v>100.8829803507618</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H26" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J26" t="n">
         <v>399.5154512777223</v>
@@ -6239,37 +6241,37 @@
         <v>856.3013579804531</v>
       </c>
       <c r="O26" t="n">
-        <v>856.3013579804531</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="P26" t="n">
-        <v>1313.087264683184</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q26" t="n">
-        <v>1769.172744187367</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R26" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S26" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T26" t="n">
-        <v>1741.232328914477</v>
+        <v>1766.683756506934</v>
       </c>
       <c r="U26" t="n">
-        <v>1741.232328914477</v>
+        <v>1508.328847103347</v>
       </c>
       <c r="V26" t="n">
-        <v>1741.232328914477</v>
+        <v>1150.839432229596</v>
       </c>
       <c r="W26" t="n">
-        <v>1344.840979214824</v>
+        <v>1150.839432229596</v>
       </c>
       <c r="X26" t="n">
-        <v>933.1209803825714</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="Y26" t="n">
-        <v>527.7837103374617</v>
+        <v>739.1194333973433</v>
       </c>
     </row>
     <row r="27">
@@ -6285,46 +6287,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E27" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F27" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I27" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J27" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K27" t="n">
-        <v>475.2419029331439</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L27" t="n">
-        <v>475.2419029331439</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M27" t="n">
-        <v>475.2419029331439</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="N27" t="n">
-        <v>932.0278096358747</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O27" t="n">
-        <v>932.0278096358747</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P27" t="n">
-        <v>1388.813716338606</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q27" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>864.6359723245046</v>
+        <v>943.187641690718</v>
       </c>
       <c r="C28" t="n">
-        <v>692.6634092034205</v>
+        <v>771.215078569634</v>
       </c>
       <c r="D28" t="n">
-        <v>692.6634092034205</v>
+        <v>607.8983056964047</v>
       </c>
       <c r="E28" t="n">
-        <v>618.5955731436038</v>
+        <v>441.6900998492582</v>
       </c>
       <c r="F28" t="n">
-        <v>446.7337989181643</v>
+        <v>269.8283256238186</v>
       </c>
       <c r="G28" t="n">
-        <v>280.4768292123964</v>
+        <v>103.5713559180508</v>
       </c>
       <c r="H28" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L28" t="n">
-        <v>303.8948463526241</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M28" t="n">
-        <v>695.080641322875</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N28" t="n">
-        <v>1072.572152198911</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O28" t="n">
-        <v>1428.000280878674</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P28" t="n">
-        <v>1718.599492800575</v>
+        <v>1806.305960203198</v>
       </c>
       <c r="Q28" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R28" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S28" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T28" t="n">
-        <v>1798.56100972851</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U28" t="n">
-        <v>1798.56100972851</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="V28" t="n">
-        <v>1798.56100972851</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="W28" t="n">
-        <v>1523.708605901023</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="X28" t="n">
-        <v>1281.144709346828</v>
+        <v>1359.696378713042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1054.80194103657</v>
+        <v>1133.353610402784</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>373.7960950607336</v>
+        <v>1076.390209335334</v>
       </c>
       <c r="C29" t="n">
-        <v>36.91199246082674</v>
+        <v>1076.390209335334</v>
       </c>
       <c r="D29" t="n">
-        <v>36.91199246082674</v>
+        <v>653.0975885203338</v>
       </c>
       <c r="E29" t="n">
-        <v>36.91199246082674</v>
+        <v>653.0975885203338</v>
       </c>
       <c r="F29" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G29" t="n">
         <v>36.91199246082674</v>
@@ -6461,19 +6463,19 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J29" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K29" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L29" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M29" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N29" t="n">
-        <v>493.6978991635576</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="O29" t="n">
         <v>932.7282368344229</v>
@@ -6494,19 +6496,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U29" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V29" t="n">
-        <v>1587.244713637749</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W29" t="n">
-        <v>1190.853363938096</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="X29" t="n">
-        <v>779.1333651058433</v>
+        <v>1076.390209335334</v>
       </c>
       <c r="Y29" t="n">
-        <v>373.7960950607336</v>
+        <v>1076.390209335334</v>
       </c>
     </row>
     <row r="30">
@@ -6522,28 +6524,28 @@
         <v>486.529580009787</v>
       </c>
       <c r="D30" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E30" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F30" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I30" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J30" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="K30" t="n">
-        <v>501.1445421254695</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="L30" t="n">
         <v>957.9304488282003</v>
@@ -6555,13 +6557,13 @@
         <v>957.9304488282003</v>
       </c>
       <c r="O30" t="n">
-        <v>1388.813716338606</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="P30" t="n">
-        <v>1845.599623041337</v>
+        <v>1414.716355530931</v>
       </c>
       <c r="Q30" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R30" t="n">
         <v>1845.599623041337</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.093114985063</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C31" t="n">
-        <v>948.1205518639796</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D31" t="n">
-        <v>784.8037789907503</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E31" t="n">
-        <v>618.5955731436038</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F31" t="n">
-        <v>446.7337989181643</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G31" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H31" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I31" t="n">
         <v>36.91199246082674</v>
@@ -6622,49 +6624,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K31" t="n">
-        <v>36.91199246082674</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L31" t="n">
-        <v>303.8948463526241</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M31" t="n">
-        <v>695.080641322875</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N31" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O31" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P31" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q31" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1798.56100972851</v>
+        <v>1843.327500305061</v>
       </c>
       <c r="S31" t="n">
-        <v>1798.56100972851</v>
+        <v>1673.192452824196</v>
       </c>
       <c r="T31" t="n">
-        <v>1798.56100972851</v>
+        <v>1429.853105050096</v>
       </c>
       <c r="U31" t="n">
-        <v>1536.601852007387</v>
+        <v>1149.6686565504</v>
       </c>
       <c r="V31" t="n">
-        <v>1536.601852007387</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="W31" t="n">
-        <v>1536.601852007387</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X31" t="n">
-        <v>1536.601852007387</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y31" t="n">
-        <v>1310.259083697129</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1076.390209335334</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="C32" t="n">
-        <v>1076.390209335334</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="D32" t="n">
-        <v>1076.390209335334</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="E32" t="n">
-        <v>1076.390209335334</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="F32" t="n">
-        <v>774.0163046538721</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G32" t="n">
-        <v>369.6772422433207</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H32" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J32" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K32" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L32" t="n">
-        <v>815.1719019525203</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M32" t="n">
-        <v>1271.957808655251</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N32" t="n">
-        <v>1271.957808655251</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O32" t="n">
-        <v>1271.957808655251</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="P32" t="n">
-        <v>1271.957808655251</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="Q32" t="n">
         <v>1728.043288159434</v>
@@ -6737,13 +6739,13 @@
         <v>1488.110208167586</v>
       </c>
       <c r="W32" t="n">
-        <v>1488.110208167586</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="X32" t="n">
-        <v>1076.390209335334</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="Y32" t="n">
-        <v>1076.390209335334</v>
+        <v>866.3752366819779</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C33" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D33" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F33" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I33" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J33" t="n">
-        <v>44.35863542273858</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K33" t="n">
-        <v>501.1445421254695</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L33" t="n">
-        <v>932.027809635875</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M33" t="n">
-        <v>932.027809635875</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N33" t="n">
         <v>1388.813716338606</v>
@@ -6807,7 +6809,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U33" t="n">
         <v>1437.627243819906</v>
@@ -6816,13 +6818,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W33" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X33" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y33" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>618.7063620392482</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C34" t="n">
-        <v>446.7337989181643</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D34" t="n">
-        <v>446.7337989181643</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E34" t="n">
-        <v>446.7337989181643</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F34" t="n">
-        <v>446.7337989181643</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G34" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H34" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K34" t="n">
         <v>76.20565529896515</v>
@@ -6883,25 +6885,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S34" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T34" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U34" t="n">
-        <v>1608.000098524967</v>
+        <v>1210.490515437405</v>
       </c>
       <c r="V34" t="n">
-        <v>1326.288631132996</v>
+        <v>1210.490515437405</v>
       </c>
       <c r="W34" t="n">
-        <v>1051.436227305509</v>
+        <v>1210.490515437405</v>
       </c>
       <c r="X34" t="n">
-        <v>808.8723307513139</v>
+        <v>1210.490515437405</v>
       </c>
       <c r="Y34" t="n">
-        <v>808.8723307513139</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.2942954637111</v>
+        <v>679.9988596356802</v>
       </c>
       <c r="C35" t="n">
-        <v>170.2942954637111</v>
+        <v>679.9988596356802</v>
       </c>
       <c r="D35" t="n">
-        <v>170.2942954637111</v>
+        <v>679.9988596356802</v>
       </c>
       <c r="E35" t="n">
-        <v>170.2942954637111</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F35" t="n">
-        <v>170.2942954637111</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G35" t="n">
-        <v>71.80886371735554</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H35" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J35" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K35" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L35" t="n">
-        <v>493.6978991635576</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M35" t="n">
-        <v>814.4714747539724</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N35" t="n">
-        <v>1271.257381456703</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O35" t="n">
-        <v>1728.043288159434</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P35" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q35" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R35" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S35" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T35" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U35" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V35" t="n">
-        <v>1383.742914040727</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W35" t="n">
-        <v>987.3515643410735</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="X35" t="n">
-        <v>575.6315655088208</v>
+        <v>679.9988596356802</v>
       </c>
       <c r="Y35" t="n">
-        <v>170.2942954637111</v>
+        <v>679.9988596356802</v>
       </c>
     </row>
     <row r="36">
@@ -6990,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C36" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D36" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E36" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F36" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I36" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J36" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K36" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L36" t="n">
-        <v>393.2225928484409</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M36" t="n">
-        <v>850.0084995511718</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N36" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O36" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P36" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q36" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R36" t="n">
         <v>1845.599623041337</v>
@@ -7044,7 +7046,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U36" t="n">
         <v>1437.627243819906</v>
@@ -7053,13 +7055,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W36" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X36" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y36" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="37">
@@ -7069,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>612.9420047653107</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="C37" t="n">
-        <v>612.9420047653107</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="D37" t="n">
-        <v>612.9420047653107</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="E37" t="n">
-        <v>446.7337989181643</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="F37" t="n">
-        <v>446.7337989181643</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G37" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H37" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K37" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L37" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M37" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N37" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O37" t="n">
-        <v>1555.000411119436</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P37" t="n">
         <v>1845.599623041337</v>
@@ -7120,25 +7122,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S37" t="n">
-        <v>1676.033092794723</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T37" t="n">
-        <v>1676.033092794723</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U37" t="n">
-        <v>1395.848644295027</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V37" t="n">
-        <v>1114.137176903056</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W37" t="n">
-        <v>839.2847730755686</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="X37" t="n">
-        <v>839.2847730755686</v>
+        <v>352.8130115130226</v>
       </c>
       <c r="Y37" t="n">
-        <v>612.9420047653107</v>
+        <v>203.1689621665946</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>889.7896622996691</v>
+        <v>867.2279947235206</v>
       </c>
       <c r="C38" t="n">
-        <v>462.8889323129692</v>
+        <v>867.2279947235206</v>
       </c>
       <c r="D38" t="n">
-        <v>462.8889323129692</v>
+        <v>867.2279947235206</v>
       </c>
       <c r="E38" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F38" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J38" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K38" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L38" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M38" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N38" t="n">
-        <v>358.3859952497895</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O38" t="n">
-        <v>815.1719019525203</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P38" t="n">
         <v>1271.957808655251</v>
@@ -7205,19 +7207,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U38" t="n">
-        <v>1643.670426873073</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V38" t="n">
-        <v>1286.181011999322</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W38" t="n">
-        <v>889.7896622996691</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X38" t="n">
-        <v>889.7896622996691</v>
+        <v>1692.41362906016</v>
       </c>
       <c r="Y38" t="n">
-        <v>889.7896622996691</v>
+        <v>1287.076359015051</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C39" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D39" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E39" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I39" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J39" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K39" t="n">
-        <v>765.3953884431487</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L39" t="n">
-        <v>765.3953884431487</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M39" t="n">
-        <v>765.3953884431487</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N39" t="n">
-        <v>1222.18129514588</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O39" t="n">
-        <v>1678.967201848611</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P39" t="n">
-        <v>1763.580312956634</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q39" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7281,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7290,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="40">
@@ -7306,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.093114985063</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C40" t="n">
-        <v>948.1205518639796</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D40" t="n">
-        <v>784.8037789907503</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E40" t="n">
-        <v>618.5955731436038</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F40" t="n">
-        <v>446.7337989181643</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G40" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H40" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K40" t="n">
-        <v>36.91199246082674</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L40" t="n">
-        <v>303.8948463526241</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M40" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N40" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O40" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P40" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
@@ -7357,25 +7359,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S40" t="n">
-        <v>1779.165748561582</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T40" t="n">
-        <v>1779.165748561582</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U40" t="n">
-        <v>1779.165748561582</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V40" t="n">
-        <v>1779.165748561582</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="W40" t="n">
-        <v>1779.165748561582</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X40" t="n">
-        <v>1536.601852007387</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y40" t="n">
-        <v>1310.259083697129</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1425.751258749807</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="C41" t="n">
-        <v>1425.751258749807</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D41" t="n">
-        <v>1002.458637934807</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E41" t="n">
-        <v>576.4816980826646</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F41" t="n">
-        <v>151.3575162720648</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J41" t="n">
-        <v>357.6855680512415</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K41" t="n">
-        <v>357.6855680512415</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L41" t="n">
-        <v>814.4714747539724</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="M41" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="N41" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O41" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P41" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q41" t="n">
         <v>1728.043288159434</v>
@@ -7436,25 +7438,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S41" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T41" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U41" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V41" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="W41" t="n">
-        <v>1845.599623041337</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="X41" t="n">
-        <v>1845.599623041337</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="Y41" t="n">
-        <v>1845.599623041337</v>
+        <v>761.6811009734918</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C42" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097868</v>
       </c>
       <c r="D42" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E42" t="n">
-        <v>277.9876877980092</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F42" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851716</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082675</v>
       </c>
       <c r="I42" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273859</v>
       </c>
       <c r="J42" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K42" t="n">
-        <v>475.2419029331441</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L42" t="n">
-        <v>475.2419029331441</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M42" t="n">
-        <v>932.027809635875</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N42" t="n">
         <v>1388.813716338606</v>
       </c>
       <c r="O42" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P42" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q42" t="n">
         <v>1845.599623041337</v>
@@ -7518,7 +7520,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U42" t="n">
         <v>1437.627243819906</v>
@@ -7527,13 +7529,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W42" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X42" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y42" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1020.32454672534</v>
+        <v>538.4095343022865</v>
       </c>
       <c r="C43" t="n">
-        <v>848.3519836042556</v>
+        <v>366.4369711812025</v>
       </c>
       <c r="D43" t="n">
-        <v>685.0352107310263</v>
+        <v>203.1201983079732</v>
       </c>
       <c r="E43" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F43" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G43" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J43" t="n">
         <v>94.40332068498475</v>
@@ -7594,25 +7596,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S43" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T43" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="U43" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="V43" t="n">
-        <v>1845.599623041337</v>
+        <v>1472.334571706292</v>
       </c>
       <c r="W43" t="n">
-        <v>1679.397180301858</v>
+        <v>1197.482167878805</v>
       </c>
       <c r="X43" t="n">
-        <v>1436.833283747663</v>
+        <v>954.91827132461</v>
       </c>
       <c r="Y43" t="n">
-        <v>1210.490515437405</v>
+        <v>728.5755030143521</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>504.3266957455847</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1329.512330082224</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>924.1750600371148</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>932.027809635875</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>575.3459868360173</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>403.3734237149333</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>403.3734237149333</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>403.3734237149333</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>231.5116494894937</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>231.5116494894937</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>87.71538099764814</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>765.5119555480831</v>
       </c>
     </row>
   </sheetData>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N20" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O20" t="n">
-        <v>498.7908651163583</v>
+        <v>362.1121742943703</v>
       </c>
       <c r="P20" t="n">
-        <v>114.0667271187383</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9483,19 +9485,19 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L21" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>381.2527255747684</v>
       </c>
       <c r="O21" t="n">
-        <v>375.55972550576</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9559,7 +9561,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9638,10 +9640,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
         <v>37.43126289943181</v>
@@ -9650,13 +9652,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>456.538457816883</v>
+        <v>457.2459600376382</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
@@ -9720,22 +9722,22 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M24" t="n">
-        <v>484.4966862726622</v>
+        <v>183.8904958969894</v>
       </c>
       <c r="N24" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>190.0864181671782</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9796,7 +9798,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K25" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9887,16 +9889,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>114.5898268852864</v>
       </c>
       <c r="P26" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>112.2315174240589</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9953,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>465.1567191589062</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9963,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>482.7429339738759</v>
+        <v>106.8108172115449</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P27" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q27" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10036,7 +10038,7 @@
         <v>20.964654452712</v>
       </c>
       <c r="L28" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10051,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>64.31013128815719</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>114.4784903637085</v>
       </c>
       <c r="O29" t="n">
-        <v>480.8559469023526</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
         <v>498.9752675705655</v>
@@ -10203,16 +10205,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>458.4075134701067</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>375.1348740725163</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,16 +10272,16 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K31" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>402.0534574160406</v>
+        <v>212.9282671456378</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
@@ -10288,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L32" t="n">
-        <v>458.1670431142372</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>498.831168659766</v>
@@ -10367,7 +10369,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>455.2721730654567</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>457.7507104621139</v>
+        <v>190.8306636765795</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N33" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O33" t="n">
         <v>484.5717954825564</v>
@@ -10507,7 +10509,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K34" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L35" t="n">
-        <v>499.7119481929572</v>
+        <v>114.80340774113</v>
       </c>
       <c r="M35" t="n">
-        <v>361.4449756170225</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L36" t="n">
-        <v>107.9828757122327</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M36" t="n">
-        <v>484.4966862726622</v>
+        <v>183.8904958969894</v>
       </c>
       <c r="N36" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O36" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10686,7 +10688,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,7 +10746,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K37" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10759,7 +10761,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q37" t="n">
         <v>24.61956276478495</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L38" t="n">
         <v>38.31204243262292</v>
@@ -10832,13 +10834,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>362.0008377727922</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>498.9752675705655</v>
+        <v>457.4303624918454</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>483.7991395936675</v>
+        <v>183.1929492179946</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N39" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O39" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>107.2386302028318</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,10 +10983,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K40" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L40" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
@@ -10999,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>353.4336722031772</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>499.7119481929572</v>
+        <v>458.1670431142371</v>
       </c>
       <c r="M41" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11139,25 +11141,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>183.1929492179944</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M42" t="n">
-        <v>484.4966862726622</v>
+        <v>183.8904958969894</v>
       </c>
       <c r="N42" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11233,7 +11235,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>68.71811917318276</v>
+        <v>68.71811917318252</v>
       </c>
       <c r="Q43" t="n">
         <v>24.61956276478495</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
@@ -11303,19 +11305,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>114.7742293394937</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11388,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>183.9656051068834</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -11452,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>20.74890097560039</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q46" t="n">
         <v>24.61956276478495</v>
@@ -23969,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>248.9949814519882</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -24029,13 +24031,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>262.1211275034661</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24130,7 +24132,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24139,13 +24141,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>90.07078466687703</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.93173177419121</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24209,13 +24211,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>38.17505641329649</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
@@ -24257,7 +24259,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24266,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>272.8189886544447</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>34.86965153999108</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>29.71622069164619</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -24455,13 +24457,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>266.1063192736333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>140.5896073767549</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>91.21896608945642</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>76.36553598427537</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -24661,7 +24663,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24680,19 +24682,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>89.11646111292509</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>211.1448716800276</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -24734,19 +24736,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.31882567078573</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>18.04303787078709</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24926,16 +24928,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>121.5227743578469</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24977,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>184.5126132758347</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>42.15907474349257</v>
+        <v>57.96423878922232</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -25160,19 +25162,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>79.95086669122162</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>302.7950943575538</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25318,7 +25320,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0.562832061908324</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>75.93173177419163</v>
       </c>
     </row>
     <row r="38">
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25403,7 +25405,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -25445,19 +25447,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>55.86145610297041</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>255.9486648025658</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>102.6641612710992</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -25606,7 +25608,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>114.3539344059676</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>286.9946032133201</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>251.0739168214592</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25834,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -25843,10 +25845,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>77.79564890241352</v>
       </c>
       <c r="W43" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>381.6083368885435</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -25928,10 +25930,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26032,16 +26034,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>48.4755279256736</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,16 +26076,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>466481.1492017994</v>
+        <v>466481.1492017992</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>466481.1492017993</v>
+        <v>466481.1492017992</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>60870.09540019948</v>
+        <v>466481.1492017992</v>
       </c>
     </row>
   </sheetData>
@@ -26332,28 +26334,28 @@
         <v>82692.15333900349</v>
       </c>
       <c r="I2" t="n">
-        <v>82692.1533390035</v>
+        <v>82692.15333900349</v>
       </c>
       <c r="J2" t="n">
-        <v>82692.15333900353</v>
+        <v>82692.15333900347</v>
       </c>
       <c r="K2" t="n">
-        <v>82692.15333900352</v>
+        <v>82692.15333900347</v>
       </c>
       <c r="L2" t="n">
-        <v>82692.15333900349</v>
+        <v>82692.15333900347</v>
       </c>
       <c r="M2" t="n">
-        <v>82692.15333900349</v>
+        <v>82692.15333900346</v>
       </c>
       <c r="N2" t="n">
-        <v>82692.15333900346</v>
+        <v>82692.15333900347</v>
       </c>
       <c r="O2" t="n">
         <v>82692.15333900347</v>
       </c>
       <c r="P2" t="n">
-        <v>10799.5330548741</v>
+        <v>82692.15333900347</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>109062.9413241932</v>
       </c>
     </row>
     <row r="4">
@@ -26439,7 +26441,7 @@
         <v>23350.61219269669</v>
       </c>
       <c r="J4" t="n">
-        <v>23350.61219269669</v>
+        <v>23350.61219269668</v>
       </c>
       <c r="K4" t="n">
         <v>23350.61219269669</v>
@@ -26448,7 +26450,7 @@
         <v>23350.61219269669</v>
       </c>
       <c r="M4" t="n">
-        <v>23350.61219269669</v>
+        <v>23350.61219269668</v>
       </c>
       <c r="N4" t="n">
         <v>23350.61219269669</v>
@@ -26457,7 +26459,7 @@
         <v>23350.61219269669</v>
       </c>
       <c r="P4" t="n">
-        <v>2945.327196783845</v>
+        <v>23350.61219269669</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="I5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="K5" t="n">
         <v>28053.11427022832</v>
       </c>
       <c r="L5" t="n">
+        <v>28053.11427022831</v>
+      </c>
+      <c r="M5" t="n">
+        <v>28053.11427022831</v>
+      </c>
+      <c r="N5" t="n">
+        <v>28053.11427022831</v>
+      </c>
+      <c r="O5" t="n">
+        <v>28053.11427022831</v>
+      </c>
+      <c r="P5" t="n">
         <v>28053.11427022832</v>
-      </c>
-      <c r="M5" t="n">
-        <v>28053.11427022832</v>
-      </c>
-      <c r="N5" t="n">
-        <v>28053.11427022832</v>
-      </c>
-      <c r="O5" t="n">
-        <v>28053.11427022832</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-25773.39414190974</v>
       </c>
       <c r="C6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-25773.39414190974</v>
       </c>
       <c r="D6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-25773.39414190974</v>
       </c>
       <c r="E6" t="n">
+        <v>7854.205858090256</v>
+      </c>
+      <c r="F6" t="n">
         <v>7854.205858090254</v>
       </c>
-      <c r="F6" t="n">
-        <v>7854.205858090252</v>
-      </c>
       <c r="G6" t="n">
-        <v>7854.205858090254</v>
+        <v>7854.205858090256</v>
       </c>
       <c r="H6" t="n">
-        <v>-93201.42029721153</v>
+        <v>-93201.42029721152</v>
       </c>
       <c r="I6" t="n">
-        <v>31288.4268760785</v>
+        <v>31288.42687607849</v>
       </c>
       <c r="J6" t="n">
-        <v>31288.42687607853</v>
+        <v>31288.42687607848</v>
       </c>
       <c r="K6" t="n">
-        <v>31288.42687607851</v>
+        <v>31288.42687607847</v>
       </c>
       <c r="L6" t="n">
         <v>31288.42687607848</v>
       </c>
       <c r="M6" t="n">
+        <v>31288.42687607846</v>
+      </c>
+      <c r="N6" t="n">
         <v>31288.42687607848</v>
-      </c>
-      <c r="N6" t="n">
-        <v>31288.42687607845</v>
       </c>
       <c r="O6" t="n">
         <v>31288.42687607847</v>
       </c>
       <c r="P6" t="n">
-        <v>7854.205858090254</v>
+        <v>-77774.51444811476</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="L4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="M4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="N4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="O4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="P4" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="M4" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="N4" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O4" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27027,31 +27029,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
     </row>
   </sheetData>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N20" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O20" t="n">
-        <v>461.3999057603342</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="P20" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>359.9096973612267</v>
       </c>
       <c r="O21" t="n">
-        <v>352.3878357835378</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,10 +36360,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36370,13 +36372,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>419.1474984608589</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M24" t="n">
-        <v>461.3999057603342</v>
+        <v>160.7937153846614</v>
       </c>
       <c r="N24" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>168.3155769623496</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,22 +36603,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>77.19886752926232</v>
       </c>
       <c r="P26" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>77.19886752926243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>461.3999057603342</v>
+        <v>85.46778899800323</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P27" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,7 +36758,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
         <v>395.137166636617</v>
@@ -36771,7 +36773,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.2829598391535</v>
+        <v>39.69056852337224</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>77.19886752926243</v>
       </c>
       <c r="O29" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>461.3999057603342</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>435.2356237478845</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>352.3878357835378</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,16 +36992,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L31" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N31" t="n">
-        <v>381.3045564404402</v>
+        <v>192.1793661700374</v>
       </c>
       <c r="O31" t="n">
         <v>359.0183117977405</v>
@@ -37008,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L32" t="n">
-        <v>419.8550006816142</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37142,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>435.2356237478843</v>
+        <v>168.31557696235</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N33" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O33" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L35" t="n">
-        <v>461.3999057603342</v>
+        <v>76.49136530850708</v>
       </c>
       <c r="M35" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L36" t="n">
-        <v>85.46778899800312</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M36" t="n">
-        <v>461.3999057603342</v>
+        <v>160.7937153846614</v>
       </c>
       <c r="N36" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
@@ -37479,7 +37481,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5345574968697</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37552,13 +37554,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>461.3999057603342</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N39" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>85.46778899800312</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L40" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
         <v>395.137166636617</v>
@@ -37719,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>324.0137127175907</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="M41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37859,25 +37861,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>160.7937153846611</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M42" t="n">
-        <v>461.3999057603342</v>
+        <v>160.7937153846614</v>
       </c>
       <c r="N42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37953,7 +37955,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>46.33731851519627</v>
+        <v>46.33731851519604</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38023,19 +38025,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>77.19886752926243</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18623.17124446173</v>
+        <v>-27972.18909264735</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24061417.37221275</v>
+        <v>23394577.99326133</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14486812.97423426</v>
+        <v>13833243.698924</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3182659.471671194</v>
+        <v>3516042.191591955</v>
       </c>
     </row>
     <row r="11">
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>13.58615654088287</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>103.6549143897923</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="19">
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>58.38991519707942</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>173.6367412348447</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>321.5569191493671</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>7.528125734399584</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>52.28752114005012</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>15.65722941559416</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>119.6084475482119</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H24" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>30.53641663450495</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>242.5129524747077</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>78.12670786905828</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>198.2959895053558</v>
       </c>
     </row>
     <row r="27">
@@ -2730,7 +2730,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>65.99276982265178</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>189.6767517149819</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>209.7280683124661</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>45.63307729339333</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>13.45665547053091</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>2.249401508912849</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>94.97236831976475</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>223.0901855680955</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.249401508912849</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3243,19 +3243,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>219.4183652254764</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>341.7663037623994</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>328.9091243905506</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>108.4540617484185</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>148.1476088529637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>60.42446577580124</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>151.6541340413644</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3644,7 +3644,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W39" t="n">
-        <v>194.5561633951149</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X39" t="n">
         <v>161.8425727710037</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>82.22009435267198</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>164.5404183120838</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>141.3535193811973</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>41.66044295539736</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>201.0987038156379</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>18.94013508403408</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>41.0233857982894</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>274.8814270509649</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>50.29535465145318</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>162.0600979802352</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4197,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1610.950661640634</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1184.049931653934</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>760.7573108389344</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1831.876232596001</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1610.950661640634</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1610.950661640634</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1610.950661640634</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1610.950661640634</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1610.950661640634</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1610.950661640634</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>735.4699216990982</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>735.4699216990982</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>572.1531488258689</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>405.9449429787225</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>405.9449429787225</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>239.6879732729546</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>95.89170478110898</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>712.1167168610727</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1089.608227737109</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1445.036356416872</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1518.376561228814</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1236.665093836843</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>961.8126900093562</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>961.8126900093562</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>735.4699216990982</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.302640172791</v>
+        <v>1086.486069811236</v>
       </c>
       <c r="C20" t="n">
-        <v>36.91199246082673</v>
+        <v>659.5853398245365</v>
       </c>
       <c r="D20" t="n">
-        <v>36.91199246082673</v>
+        <v>659.5853398245365</v>
       </c>
       <c r="E20" t="n">
-        <v>36.91199246082673</v>
+        <v>659.5853398245365</v>
       </c>
       <c r="F20" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G20" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J20" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K20" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L20" t="n">
-        <v>36.91199246082673</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M20" t="n">
-        <v>493.6978991635576</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N20" t="n">
-        <v>950.4838058662883</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O20" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P20" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q20" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T20" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U20" t="n">
-        <v>1845.599623041337</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V20" t="n">
-        <v>1845.599623041337</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="W20" t="n">
-        <v>1449.208273341683</v>
+        <v>1086.486069811236</v>
       </c>
       <c r="X20" t="n">
-        <v>1037.488274509431</v>
+        <v>1086.486069811236</v>
       </c>
       <c r="Y20" t="n">
-        <v>632.1510044643211</v>
+        <v>1086.486069811236</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C21" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D21" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E21" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F21" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H21" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I21" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J21" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K21" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L21" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M21" t="n">
-        <v>950.4838058662883</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N21" t="n">
+        <v>850.0084995511718</v>
+      </c>
+      <c r="O21" t="n">
+        <v>850.0084995511718</v>
+      </c>
+      <c r="P21" t="n">
         <v>1306.794406253903</v>
       </c>
-      <c r="O21" t="n">
-        <v>1306.794406253903</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1763.580312956633</v>
-      </c>
       <c r="Q21" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R21" t="n">
         <v>1845.599623041337</v>
@@ -5861,7 +5861,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U21" t="n">
         <v>1437.627243819906</v>
@@ -5870,13 +5870,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X21" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y21" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>352.8130115130226</v>
+        <v>216.4887229903952</v>
       </c>
       <c r="C22" t="n">
-        <v>352.8130115130226</v>
+        <v>44.51615986931117</v>
       </c>
       <c r="D22" t="n">
-        <v>189.4962386397933</v>
+        <v>44.51615986931117</v>
       </c>
       <c r="E22" t="n">
-        <v>189.4962386397933</v>
+        <v>44.51615986931117</v>
       </c>
       <c r="F22" t="n">
-        <v>189.4962386397933</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G22" t="n">
-        <v>189.4962386397933</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H22" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K22" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L22" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M22" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N22" t="n">
-        <v>1199.572282439673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O22" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P22" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q22" t="n">
         <v>1845.599623041337</v>
@@ -5940,22 +5940,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T22" t="n">
-        <v>1432.125227786371</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U22" t="n">
-        <v>1151.940779286676</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="V22" t="n">
-        <v>870.2293118947046</v>
+        <v>1150.413760394401</v>
       </c>
       <c r="W22" t="n">
-        <v>595.3769080672175</v>
+        <v>875.5613565669137</v>
       </c>
       <c r="X22" t="n">
-        <v>352.8130115130226</v>
+        <v>632.9974600127188</v>
       </c>
       <c r="Y22" t="n">
-        <v>352.8130115130226</v>
+        <v>406.6546917024608</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>888.013114123569</v>
+        <v>1344.840979214824</v>
       </c>
       <c r="C23" t="n">
-        <v>888.013114123569</v>
+        <v>917.9402492281242</v>
       </c>
       <c r="D23" t="n">
-        <v>888.013114123569</v>
+        <v>917.9402492281242</v>
       </c>
       <c r="E23" t="n">
-        <v>462.0361742714265</v>
+        <v>491.9633093759818</v>
       </c>
       <c r="F23" t="n">
-        <v>36.91199246082673</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="G23" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H23" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I23" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J23" t="n">
         <v>399.5154512777223</v>
@@ -5995,46 +5995,46 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L23" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M23" t="n">
-        <v>399.5154512777223</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N23" t="n">
-        <v>399.5154512777223</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="O23" t="n">
-        <v>815.1719019525202</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P23" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q23" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R23" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S23" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T23" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U23" t="n">
-        <v>1366.319142682382</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V23" t="n">
-        <v>1008.829727808632</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W23" t="n">
-        <v>888.013114123569</v>
+        <v>1344.840979214824</v>
       </c>
       <c r="X23" t="n">
-        <v>888.013114123569</v>
+        <v>1344.840979214824</v>
       </c>
       <c r="Y23" t="n">
-        <v>888.013114123569</v>
+        <v>1344.840979214824</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C24" t="n">
-        <v>486.5295800097868</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D24" t="n">
-        <v>382.6896215250718</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E24" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F24" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G24" t="n">
-        <v>90.28808569851716</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H24" t="n">
-        <v>36.91199246082675</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I24" t="n">
-        <v>44.35863542273859</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J24" t="n">
-        <v>316.0561247023297</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="K24" t="n">
-        <v>772.8420314050604</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="L24" t="n">
-        <v>1229.627938107791</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="M24" t="n">
-        <v>1388.813716338606</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="N24" t="n">
-        <v>1388.813716338606</v>
+        <v>393.2225928484409</v>
       </c>
       <c r="O24" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P24" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q24" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R24" t="n">
         <v>1845.599623041337</v>
@@ -6098,7 +6098,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U24" t="n">
         <v>1437.627243819906</v>
@@ -6107,13 +6107,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X24" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y24" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1120.093114985063</v>
+        <v>405.9863905750573</v>
       </c>
       <c r="C25" t="n">
-        <v>948.1205518639796</v>
+        <v>234.0138274539733</v>
       </c>
       <c r="D25" t="n">
-        <v>784.8037789907503</v>
+        <v>234.0138274539733</v>
       </c>
       <c r="E25" t="n">
-        <v>618.5955731436038</v>
+        <v>234.0138274539733</v>
       </c>
       <c r="F25" t="n">
-        <v>446.7337989181643</v>
+        <v>234.0138274539733</v>
       </c>
       <c r="G25" t="n">
-        <v>280.4768292123964</v>
+        <v>67.75685774820548</v>
       </c>
       <c r="H25" t="n">
-        <v>136.6805607205508</v>
+        <v>67.75685774820548</v>
       </c>
       <c r="I25" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J25" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K25" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L25" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M25" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N25" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O25" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P25" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q25" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R25" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S25" t="n">
-        <v>1798.56100972851</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T25" t="n">
-        <v>1555.22166195441</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="U25" t="n">
-        <v>1310.259083697129</v>
+        <v>1395.280127060776</v>
       </c>
       <c r="V25" t="n">
-        <v>1310.259083697129</v>
+        <v>1113.568659668805</v>
       </c>
       <c r="W25" t="n">
-        <v>1310.259083697129</v>
+        <v>838.7162558413179</v>
       </c>
       <c r="X25" t="n">
-        <v>1310.259083697129</v>
+        <v>596.152359287123</v>
       </c>
       <c r="Y25" t="n">
-        <v>1310.259083697129</v>
+        <v>596.152359287123</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>739.1194333973433</v>
+        <v>1166.020163384043</v>
       </c>
       <c r="C26" t="n">
         <v>739.1194333973433</v>
@@ -6220,10 +6220,10 @@
         <v>334.7803709867919</v>
       </c>
       <c r="H26" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J26" t="n">
         <v>399.5154512777223</v>
@@ -6232,7 +6232,7 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L26" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M26" t="n">
         <v>856.3013579804531</v>
@@ -6241,13 +6241,13 @@
         <v>856.3013579804531</v>
       </c>
       <c r="O26" t="n">
-        <v>932.7282368344228</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P26" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q26" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R26" t="n">
         <v>1845.599623041337</v>
@@ -6256,22 +6256,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T26" t="n">
-        <v>1766.683756506934</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U26" t="n">
-        <v>1508.328847103347</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V26" t="n">
-        <v>1150.839432229596</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="W26" t="n">
-        <v>1150.839432229596</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="X26" t="n">
-        <v>739.1194333973433</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="Y26" t="n">
-        <v>739.1194333973433</v>
+        <v>1166.020163384043</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C27" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E27" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F27" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I27" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J27" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K27" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L27" t="n">
-        <v>765.3953884431487</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M27" t="n">
-        <v>765.3953884431487</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N27" t="n">
-        <v>850.0084995511719</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O27" t="n">
+        <v>1229.627938107791</v>
+      </c>
+      <c r="P27" t="n">
         <v>1306.794406253903</v>
       </c>
-      <c r="P27" t="n">
-        <v>1763.580312956633</v>
-      </c>
       <c r="Q27" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6335,7 +6335,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U27" t="n">
         <v>1437.627243819906</v>
@@ -6344,13 +6344,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W27" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>943.187641690718</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C28" t="n">
-        <v>771.215078569634</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D28" t="n">
-        <v>607.8983056964047</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E28" t="n">
-        <v>441.6900998492582</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F28" t="n">
-        <v>269.8283256238186</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G28" t="n">
-        <v>103.5713559180508</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H28" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K28" t="n">
-        <v>36.91199246082673</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6013137552475</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M28" t="n">
-        <v>782.7871087254983</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N28" t="n">
-        <v>1160.278619601534</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O28" t="n">
-        <v>1515.706748281297</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P28" t="n">
-        <v>1806.305960203198</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q28" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R28" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S28" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T28" t="n">
-        <v>1602.260275267236</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U28" t="n">
-        <v>1602.260275267236</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V28" t="n">
-        <v>1602.260275267236</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="W28" t="n">
-        <v>1602.260275267236</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.696378713042</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.353610402784</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1076.390209335334</v>
+        <v>923.8337755146551</v>
       </c>
       <c r="C29" t="n">
-        <v>1076.390209335334</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="D29" t="n">
-        <v>653.0975885203338</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="E29" t="n">
-        <v>653.0975885203338</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="F29" t="n">
-        <v>441.2510548713781</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G29" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I29" t="n">
         <v>36.91199246082674</v>
@@ -6472,19 +6472,19 @@
         <v>399.5154512777223</v>
       </c>
       <c r="M29" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N29" t="n">
-        <v>932.7282368344229</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O29" t="n">
-        <v>932.7282368344229</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P29" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q29" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
@@ -6493,22 +6493,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T29" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U29" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V29" t="n">
-        <v>1488.110208167586</v>
+        <v>1320.225125214308</v>
       </c>
       <c r="W29" t="n">
-        <v>1488.110208167586</v>
+        <v>923.8337755146551</v>
       </c>
       <c r="X29" t="n">
-        <v>1076.390209335334</v>
+        <v>923.8337755146551</v>
       </c>
       <c r="Y29" t="n">
-        <v>1076.390209335334</v>
+        <v>923.8337755146551</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>44.35863542273854</v>
       </c>
       <c r="J30" t="n">
-        <v>44.35863542273854</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K30" t="n">
-        <v>501.1445421254694</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L30" t="n">
-        <v>957.9304488282003</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M30" t="n">
-        <v>957.9304488282003</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N30" t="n">
-        <v>957.9304488282003</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O30" t="n">
-        <v>957.9304488282003</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P30" t="n">
-        <v>1414.716355530931</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q30" t="n">
         <v>1763.580312956634</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.8845555819107</v>
+        <v>560.5958807964828</v>
       </c>
       <c r="C31" t="n">
-        <v>36.91199246082674</v>
+        <v>388.6233176753988</v>
       </c>
       <c r="D31" t="n">
-        <v>36.91199246082674</v>
+        <v>388.6233176753988</v>
       </c>
       <c r="E31" t="n">
-        <v>36.91199246082674</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F31" t="n">
-        <v>36.91199246082674</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G31" t="n">
         <v>36.91199246082674</v>
@@ -6621,19 +6621,19 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J31" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K31" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L31" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M31" t="n">
-        <v>1009.314709931336</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N31" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O31" t="n">
         <v>1555.000411119436</v>
@@ -6645,28 +6645,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1843.327500305061</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S31" t="n">
-        <v>1673.192452824196</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T31" t="n">
-        <v>1429.853105050096</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U31" t="n">
-        <v>1149.6686565504</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V31" t="n">
-        <v>867.9571891584293</v>
+        <v>993.3257460627433</v>
       </c>
       <c r="W31" t="n">
-        <v>867.9571891584293</v>
+        <v>993.3257460627433</v>
       </c>
       <c r="X31" t="n">
-        <v>625.3932926042344</v>
+        <v>750.7618495085484</v>
       </c>
       <c r="Y31" t="n">
-        <v>399.0505242939764</v>
+        <v>750.7618495085484</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>866.3752366819779</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="C32" t="n">
-        <v>866.3752366819779</v>
+        <v>835.0511185688229</v>
       </c>
       <c r="D32" t="n">
-        <v>866.3752366819779</v>
+        <v>835.0511185688229</v>
       </c>
       <c r="E32" t="n">
-        <v>866.3752366819779</v>
+        <v>835.0511185688229</v>
       </c>
       <c r="F32" t="n">
-        <v>441.2510548713781</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J32" t="n">
         <v>399.5154512777223</v>
@@ -6709,16 +6709,16 @@
         <v>856.3013579804531</v>
       </c>
       <c r="M32" t="n">
-        <v>1313.087264683184</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N32" t="n">
-        <v>1313.087264683184</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O32" t="n">
-        <v>1313.087264683184</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P32" t="n">
-        <v>1313.087264683184</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q32" t="n">
         <v>1728.043288159434</v>
@@ -6727,25 +6727,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S32" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T32" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U32" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V32" t="n">
-        <v>1488.110208167586</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="W32" t="n">
-        <v>1091.718858467933</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="X32" t="n">
-        <v>866.3752366819779</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="Y32" t="n">
-        <v>866.3752366819779</v>
+        <v>1261.951848555523</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C33" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D33" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F33" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I33" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J33" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K33" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L33" t="n">
-        <v>475.2419029331443</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M33" t="n">
-        <v>932.0278096358751</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N33" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O33" t="n">
-        <v>1845.599623041337</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P33" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q33" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6809,7 +6809,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U33" t="n">
         <v>1437.627243819906</v>
@@ -6818,13 +6818,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W33" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X33" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y33" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1020.32454672534</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C34" t="n">
-        <v>848.3519836042556</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D34" t="n">
-        <v>685.0352107310263</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E34" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F34" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G34" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H34" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J34" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K34" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L34" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M34" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N34" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O34" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P34" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q34" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R34" t="n">
-        <v>1845.599623041337</v>
+        <v>1843.327500305061</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.464575560472</v>
+        <v>1673.192452824196</v>
       </c>
       <c r="T34" t="n">
-        <v>1432.125227786371</v>
+        <v>1429.853105050096</v>
       </c>
       <c r="U34" t="n">
-        <v>1210.490515437405</v>
+        <v>1149.6686565504</v>
       </c>
       <c r="V34" t="n">
-        <v>1210.490515437405</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.490515437405</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X34" t="n">
-        <v>1210.490515437405</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y34" t="n">
-        <v>1210.490515437405</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>679.9988596356802</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C35" t="n">
-        <v>679.9988596356802</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D35" t="n">
-        <v>679.9988596356802</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E35" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F35" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G35" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J35" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K35" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L35" t="n">
-        <v>932.0278096358751</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M35" t="n">
-        <v>932.0278096358751</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N35" t="n">
-        <v>932.0278096358751</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O35" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P35" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q35" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R35" t="n">
         <v>1845.599623041337</v>
@@ -6967,22 +6967,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T35" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U35" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V35" t="n">
-        <v>1488.110208167586</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="W35" t="n">
-        <v>1091.718858467933</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="X35" t="n">
-        <v>679.9988596356802</v>
+        <v>1292.442613307636</v>
       </c>
       <c r="Y35" t="n">
-        <v>679.9988596356802</v>
+        <v>887.1053432625264</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C36" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E36" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F36" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I36" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J36" t="n">
-        <v>316.0561247023297</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="K36" t="n">
-        <v>772.8420314050604</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="L36" t="n">
-        <v>1229.627938107791</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="M36" t="n">
-        <v>1388.813716338606</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="N36" t="n">
-        <v>1845.599623041337</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O36" t="n">
-        <v>1845.599623041337</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P36" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q36" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R36" t="n">
         <v>1845.599623041337</v>
@@ -7046,7 +7046,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U36" t="n">
         <v>1437.627243819906</v>
@@ -7055,13 +7055,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W36" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X36" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y36" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>203.1689621665946</v>
+        <v>804.4350722677784</v>
       </c>
       <c r="C37" t="n">
-        <v>203.1689621665946</v>
+        <v>632.4625091466944</v>
       </c>
       <c r="D37" t="n">
-        <v>203.1689621665946</v>
+        <v>469.1457362734651</v>
       </c>
       <c r="E37" t="n">
-        <v>203.1689621665946</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="F37" t="n">
-        <v>203.1689621665946</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="G37" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H37" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K37" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L37" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.314709931336</v>
+        <v>1050.508770002638</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.806220807371</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O37" t="n">
-        <v>1742.234349487134</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P37" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q37" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R37" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S37" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T37" t="n">
-        <v>1432.125227786371</v>
+        <v>1518.87640492601</v>
       </c>
       <c r="U37" t="n">
-        <v>1151.940779286676</v>
+        <v>1518.87640492601</v>
       </c>
       <c r="V37" t="n">
-        <v>870.2293118947046</v>
+        <v>1237.164937534039</v>
       </c>
       <c r="W37" t="n">
-        <v>595.3769080672175</v>
+        <v>1237.164937534039</v>
       </c>
       <c r="X37" t="n">
-        <v>352.8130115130226</v>
+        <v>994.6010409798441</v>
       </c>
       <c r="Y37" t="n">
-        <v>203.1689621665946</v>
+        <v>994.6010409798441</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>867.2279947235206</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="C38" t="n">
-        <v>867.2279947235206</v>
+        <v>835.0511185688229</v>
       </c>
       <c r="D38" t="n">
-        <v>867.2279947235206</v>
+        <v>835.0511185688229</v>
       </c>
       <c r="E38" t="n">
-        <v>441.2510548713781</v>
+        <v>835.0511185688229</v>
       </c>
       <c r="F38" t="n">
-        <v>441.2510548713781</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082673</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J38" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K38" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L38" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="M38" t="n">
-        <v>856.3013579804531</v>
+        <v>358.3859952497895</v>
       </c>
       <c r="N38" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O38" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P38" t="n">
         <v>1271.957808655251</v>
@@ -7201,25 +7201,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S38" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T38" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U38" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V38" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="W38" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="X38" t="n">
-        <v>1692.41362906016</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="Y38" t="n">
-        <v>1287.076359015051</v>
+        <v>1261.951848555523</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C39" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E39" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I39" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J39" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K39" t="n">
-        <v>475.2419029331443</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L39" t="n">
-        <v>475.2419029331443</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M39" t="n">
-        <v>932.0278096358751</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N39" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O39" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P39" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q39" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7283,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7292,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="40">
@@ -7326,58 +7326,58 @@
         <v>180.7082609526723</v>
       </c>
       <c r="H40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K40" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L40" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M40" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N40" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O40" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P40" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R40" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S40" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T40" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U40" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V40" t="n">
-        <v>1679.397180301858</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="W40" t="n">
-        <v>1679.397180301858</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="X40" t="n">
-        <v>1436.833283747663</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="Y40" t="n">
-        <v>1210.490515437405</v>
+        <v>1103.375147081574</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>761.6811009734918</v>
+        <v>1219.87059304502</v>
       </c>
       <c r="C41" t="n">
-        <v>334.7803709867919</v>
+        <v>792.9698630583205</v>
       </c>
       <c r="D41" t="n">
-        <v>334.7803709867919</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="E41" t="n">
-        <v>334.7803709867919</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F41" t="n">
-        <v>334.7803709867919</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G41" t="n">
-        <v>334.7803709867919</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J41" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K41" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L41" t="n">
-        <v>815.1719019525202</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="M41" t="n">
-        <v>815.1719019525202</v>
+        <v>358.3859952497895</v>
       </c>
       <c r="N41" t="n">
-        <v>815.1719019525202</v>
+        <v>358.3859952497895</v>
       </c>
       <c r="O41" t="n">
-        <v>815.1719019525202</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P41" t="n">
         <v>1271.957808655251</v>
@@ -7444,19 +7444,19 @@
         <v>1520.30675795911</v>
       </c>
       <c r="U41" t="n">
-        <v>1261.951848555522</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V41" t="n">
-        <v>904.4624336817719</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="W41" t="n">
-        <v>761.6811009734918</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="X41" t="n">
-        <v>761.6811009734918</v>
+        <v>1219.87059304502</v>
       </c>
       <c r="Y41" t="n">
-        <v>761.6811009734918</v>
+        <v>1219.87059304502</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C42" t="n">
-        <v>486.5295800097868</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D42" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E42" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F42" t="n">
         <v>184.3418574809132</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851716</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082675</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I42" t="n">
-        <v>44.35863542273859</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J42" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K42" t="n">
         <v>772.8420314050604</v>
       </c>
       <c r="L42" t="n">
-        <v>1229.627938107791</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M42" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N42" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O42" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P42" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q42" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R42" t="n">
         <v>1845.599623041337</v>
@@ -7520,7 +7520,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U42" t="n">
         <v>1437.627243819906</v>
@@ -7529,13 +7529,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W42" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X42" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y42" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>538.4095343022865</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="C43" t="n">
-        <v>366.4369711812025</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="D43" t="n">
-        <v>203.1201983079732</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E43" t="n">
-        <v>36.91199246082673</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F43" t="n">
-        <v>36.91199246082673</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G43" t="n">
-        <v>36.91199246082673</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H43" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J43" t="n">
         <v>94.40332068498475</v>
@@ -7581,40 +7581,40 @@
         <v>1066.806038155494</v>
       </c>
       <c r="N43" t="n">
-        <v>1444.297549031529</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O43" t="n">
-        <v>1799.725677711293</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P43" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q43" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R43" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S43" t="n">
-        <v>1675.464575560472</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T43" t="n">
-        <v>1675.464575560472</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U43" t="n">
-        <v>1675.464575560472</v>
+        <v>1518.376561228814</v>
       </c>
       <c r="V43" t="n">
-        <v>1472.334571706292</v>
+        <v>1236.665093836843</v>
       </c>
       <c r="W43" t="n">
-        <v>1197.482167878805</v>
+        <v>1217.533644257011</v>
       </c>
       <c r="X43" t="n">
-        <v>954.91827132461</v>
+        <v>974.969747702816</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.5755030143521</v>
+        <v>974.969747702816</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>504.3266957455847</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="C44" t="n">
-        <v>462.8889323129692</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="D44" t="n">
-        <v>462.8889323129692</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E44" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F44" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G44" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H44" t="n">
         <v>36.91199246082674</v>
@@ -7648,25 +7648,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J44" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K44" t="n">
-        <v>399.5154512777223</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="L44" t="n">
-        <v>399.5154512777223</v>
+        <v>932.027809635875</v>
       </c>
       <c r="M44" t="n">
-        <v>856.3013579804531</v>
+        <v>932.027809635875</v>
       </c>
       <c r="N44" t="n">
-        <v>1313.087264683184</v>
+        <v>932.027809635875</v>
       </c>
       <c r="O44" t="n">
-        <v>1313.087264683184</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P44" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q44" t="n">
         <v>1845.599623041337</v>
@@ -7675,25 +7675,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T44" t="n">
-        <v>1741.232328914477</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U44" t="n">
-        <v>1741.232328914477</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V44" t="n">
-        <v>1741.232328914477</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W44" t="n">
-        <v>1741.232328914477</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="X44" t="n">
-        <v>1329.512330082224</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="Y44" t="n">
-        <v>924.1750600371148</v>
+        <v>612.4383781089787</v>
       </c>
     </row>
     <row r="45">
@@ -7742,13 +7742,13 @@
         <v>772.8420314050604</v>
       </c>
       <c r="O45" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P45" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q45" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R45" t="n">
         <v>1845.599623041337</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>575.3459868360173</v>
+        <v>676.490209378816</v>
       </c>
       <c r="C46" t="n">
-        <v>403.3734237149333</v>
+        <v>676.490209378816</v>
       </c>
       <c r="D46" t="n">
-        <v>403.3734237149333</v>
+        <v>513.1734365055867</v>
       </c>
       <c r="E46" t="n">
-        <v>403.3734237149333</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="F46" t="n">
-        <v>231.5116494894937</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G46" t="n">
-        <v>231.5116494894937</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H46" t="n">
-        <v>87.71538099764814</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I46" t="n">
         <v>36.91199246082674</v>
@@ -7815,43 +7815,43 @@
         <v>675.6202431852428</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.806038155494</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N46" t="n">
-        <v>1444.297549031529</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O46" t="n">
-        <v>1799.725677711293</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P46" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q46" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S46" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T46" t="n">
-        <v>1602.260275267237</v>
+        <v>1464.728893580741</v>
       </c>
       <c r="U46" t="n">
-        <v>1322.075826767541</v>
+        <v>1184.544445081045</v>
       </c>
       <c r="V46" t="n">
-        <v>1040.36435937557</v>
+        <v>902.8329776890739</v>
       </c>
       <c r="W46" t="n">
-        <v>765.5119555480831</v>
+        <v>902.8329776890739</v>
       </c>
       <c r="X46" t="n">
-        <v>765.5119555480831</v>
+        <v>902.8329776890739</v>
       </c>
       <c r="Y46" t="n">
-        <v>765.5119555480831</v>
+        <v>676.490209378816</v>
       </c>
     </row>
   </sheetData>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>35.76460079480934</v>
@@ -9178,16 +9178,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>101.0427079326425</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9263,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>21.91875989570122</v>
       </c>
       <c r="M19" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>20.74890097560039</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>22.38080065798648</v>
+        <v>298.7072010455656</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M20" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N20" t="n">
-        <v>498.6795285947802</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O20" t="n">
-        <v>362.1121742943703</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>483.7991395936675</v>
@@ -9488,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>381.2527255747684</v>
+        <v>99.28895563385618</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9570,16 +9570,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>385.5915703929544</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9643,25 +9643,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>114.4784903637085</v>
       </c>
       <c r="O23" t="n">
-        <v>457.2459600376382</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>183.8904958969894</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>373.7308639970794</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q24" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9880,25 +9880,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M26" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>114.5898268852864</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>498.9752675705654</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
@@ -9959,22 +9959,22 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>106.8108172115449</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>483.1707469651628</v>
+        <v>99.71676862514317</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.31013128815719</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10120,13 +10120,13 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>114.4784903637085</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P29" t="n">
         <v>498.9752675705655</v>
@@ -10135,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L30" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10211,7 +10211,7 @@
         <v>483.1707469651629</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.1348740725163</v>
+        <v>100.692965709293</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10281,10 +10281,10 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>212.9282671456378</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>134.3202603144915</v>
       </c>
       <c r="P31" t="n">
         <v>315.9153581548562</v>
@@ -10357,19 +10357,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>456.538457816883</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q32" t="n">
-        <v>455.2721730654567</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L33" t="n">
-        <v>190.8306636765795</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>114.80340774113</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>457.1346235160602</v>
       </c>
       <c r="O35" t="n">
-        <v>498.7908651163582</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P35" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M36" t="n">
-        <v>183.8904958969894</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>482.7429339738758</v>
+        <v>373.7308639970794</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
@@ -10752,19 +10752,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>417.7126065281028</v>
+        <v>401.2507195050165</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7901678844535</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>362.152477837778</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O38" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>457.4303624918454</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10904,28 +10904,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>183.1929492179946</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q39" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
@@ -11001,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>458.1670431142371</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>362.152477837778</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P41" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11144,25 +11144,25 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>183.8904958969894</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q42" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11229,16 +11229,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>68.71811917318252</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>478.5220861203824</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M44" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P44" t="n">
-        <v>114.7742293394937</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11390,7 +11390,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>183.9656051068834</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P45" t="n">
         <v>483.1707469651629</v>
@@ -11399,7 +11399,7 @@
         <v>484.1469440493127</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11463,7 +11463,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -11472,10 +11472,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23734,13 +23734,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -23749,7 +23749,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>89.73746464470813</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23895,22 +23895,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>40.38096738004737</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -23946,19 +23946,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>248.9949814519882</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23980,13 +23980,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>99.31602084312664</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>162.6150307487856</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>90.07078466687703</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>405.2157105768996</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>272.8189886544447</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>68.23446594262184</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>34.86965153999108</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -24445,7 +24445,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -24496,22 +24496,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>140.5896073767549</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>202.9879078393028</v>
       </c>
     </row>
     <row r="27">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>76.36553598427537</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -24666,7 +24666,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>50.46150587367103</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>211.1448716800276</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>308.2814434316197</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24846,13 +24846,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>151.0894683181441</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.31882567078573</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24928,13 +24928,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>325.900571672729</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>184.5126132758347</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>44.31882567078573</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.96423878922232</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,13 +25156,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>79.95086669122162</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -25171,7 +25171,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25207,22 +25207,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>78.69367445337957</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -25332,7 +25332,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>132.4518925479405</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.93173177419163</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>360.4484742166925</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25456,10 +25456,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>255.9486648025658</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>106.044214672273</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>114.3539344059676</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>251.0739168214592</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>365.9423558885329</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>77.79564890241352</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>253.163744705178</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>381.6083368885435</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>144.1782675558848</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -25882,7 +25882,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>48.4755279256736</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>78.84585631612384</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60870.09540019948</v>
+        <v>466481.1492017991</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>466481.1492017992</v>
+        <v>466481.1492017993</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>466481.1492017992</v>
+        <v>466481.1492017991</v>
       </c>
     </row>
     <row r="15">
@@ -26328,10 +26328,10 @@
         <v>10799.5330548741</v>
       </c>
       <c r="G2" t="n">
-        <v>10799.5330548741</v>
+        <v>82692.15333900349</v>
       </c>
       <c r="H2" t="n">
-        <v>82692.15333900349</v>
+        <v>82692.1533390035</v>
       </c>
       <c r="I2" t="n">
         <v>82692.15333900349</v>
@@ -26340,22 +26340,22 @@
         <v>82692.15333900347</v>
       </c>
       <c r="K2" t="n">
-        <v>82692.15333900347</v>
+        <v>82692.15333900349</v>
       </c>
       <c r="L2" t="n">
         <v>82692.15333900347</v>
       </c>
       <c r="M2" t="n">
-        <v>82692.15333900346</v>
+        <v>82692.15333900349</v>
       </c>
       <c r="N2" t="n">
-        <v>82692.15333900347</v>
+        <v>82692.15333900349</v>
       </c>
       <c r="O2" t="n">
-        <v>82692.15333900347</v>
+        <v>82692.15333900349</v>
       </c>
       <c r="P2" t="n">
-        <v>82692.15333900347</v>
+        <v>82692.1533390035</v>
       </c>
     </row>
     <row r="3">
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>126462.7931703212</v>
       </c>
       <c r="H3" t="n">
-        <v>124489.84717329</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>111036.3487211302</v>
       </c>
       <c r="P3" t="n">
-        <v>109062.9413241932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,7 +26432,7 @@
         <v>2945.327196783845</v>
       </c>
       <c r="G4" t="n">
-        <v>2945.327196783845</v>
+        <v>23350.61219269669</v>
       </c>
       <c r="H4" t="n">
         <v>23350.61219269669</v>
@@ -26441,7 +26441,7 @@
         <v>23350.61219269669</v>
       </c>
       <c r="J4" t="n">
-        <v>23350.61219269668</v>
+        <v>23350.61219269669</v>
       </c>
       <c r="K4" t="n">
         <v>23350.61219269669</v>
@@ -26450,7 +26450,7 @@
         <v>23350.61219269669</v>
       </c>
       <c r="M4" t="n">
-        <v>23350.61219269668</v>
+        <v>23350.61219269669</v>
       </c>
       <c r="N4" t="n">
         <v>23350.61219269669</v>
@@ -26484,31 +26484,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="H5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="I5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="K5" t="n">
         <v>28053.11427022832</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="P5" t="n">
         <v>28053.11427022832</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25773.39414190974</v>
+        <v>-27131.32323871152</v>
       </c>
       <c r="C6" t="n">
-        <v>-25773.39414190974</v>
+        <v>-27131.32323871152</v>
       </c>
       <c r="D6" t="n">
-        <v>-25773.39414190974</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="E6" t="n">
-        <v>7854.205858090256</v>
+        <v>6496.276761288476</v>
       </c>
       <c r="F6" t="n">
-        <v>7854.205858090254</v>
+        <v>6496.276761288476</v>
       </c>
       <c r="G6" t="n">
-        <v>7854.205858090256</v>
+        <v>-95878.72611573424</v>
       </c>
       <c r="H6" t="n">
-        <v>-93201.42029721152</v>
+        <v>30584.06705458699</v>
       </c>
       <c r="I6" t="n">
-        <v>31288.42687607849</v>
+        <v>30584.06705458697</v>
       </c>
       <c r="J6" t="n">
-        <v>31288.42687607848</v>
+        <v>30584.06705458696</v>
       </c>
       <c r="K6" t="n">
-        <v>31288.42687607847</v>
+        <v>30584.06705458697</v>
       </c>
       <c r="L6" t="n">
-        <v>31288.42687607848</v>
+        <v>30584.06705458696</v>
       </c>
       <c r="M6" t="n">
-        <v>31288.42687607846</v>
+        <v>30584.06705458697</v>
       </c>
       <c r="N6" t="n">
-        <v>31288.42687607848</v>
+        <v>30584.06705458697</v>
       </c>
       <c r="O6" t="n">
-        <v>31288.42687607847</v>
+        <v>-80452.28166654323</v>
       </c>
       <c r="P6" t="n">
-        <v>-77774.51444811476</v>
+        <v>30584.06705458699</v>
       </c>
     </row>
   </sheetData>
@@ -26804,31 +26804,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
         <v>461.3999057603342</v>
@@ -27026,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27050,10 +27050,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35898,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>276.3264003875791</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M20" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N20" t="n">
-        <v>461.3999057603341</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O20" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9096973612267</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36290,16 +36290,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>381.3045564404402</v>
+        <v>364.842669417354</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>77.19886752926243</v>
       </c>
       <c r="O23" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>160.7937153846614</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>352.3878357835377</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q24" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N25" t="n">
         <v>381.3045564404402</v>
@@ -36536,7 +36536,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M26" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>77.19886752926232</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>85.46778899800323</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N28" t="n">
         <v>381.3045564404402</v>
@@ -36773,7 +36773,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.69056852337224</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,13 +36840,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>77.19886752926243</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P29" t="n">
         <v>461.3999057603342</v>
@@ -36855,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="Q30" t="n">
-        <v>352.3878357835378</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K31" t="n">
         <v>228.8157587937749</v>
@@ -37001,10 +37001,10 @@
         <v>395.137166636617</v>
       </c>
       <c r="N31" t="n">
-        <v>192.1793661700374</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O31" t="n">
-        <v>359.0183117977405</v>
+        <v>111.8210728160671</v>
       </c>
       <c r="P31" t="n">
         <v>293.5345574968697</v>
@@ -37071,25 +37071,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q32" t="n">
-        <v>419.1474984608586</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L33" t="n">
-        <v>168.31557696235</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M34" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N34" t="n">
         <v>381.3045564404402</v>
@@ -37247,7 +37247,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>76.49136530850708</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="O35" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P35" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M36" t="n">
-        <v>160.7937153846614</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>461.3999057603341</v>
+        <v>352.3878357835378</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
         <v>228.8157587937749</v>
@@ -37472,19 +37472,19 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
-        <v>395.137166636617</v>
+        <v>378.6752796135307</v>
       </c>
       <c r="N37" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O37" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>104.409367226467</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>419.8550006816141</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37624,28 +37624,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>160.7937153846612</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q39" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N40" t="n">
         <v>381.3045564404402</v>
@@ -37721,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P41" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37861,28 +37861,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L42" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>160.7937153846614</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q42" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37949,16 +37949,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N43" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O43" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>46.33731851519604</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N44" t="n">
+      <c r="P44" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>77.19886752926243</v>
-      </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>160.7937153846612</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P45" t="n">
         <v>461.3999057603342</v>
@@ -38119,7 +38119,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38183,7 +38183,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N46" t="n">
         <v>381.3045564404402</v>
@@ -38192,10 +38192,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
